--- a/data/trans_dic/P04D$individual-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P04D$individual-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,69; 47,05</t>
+          <t>37,62; 47,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30,87; 40,28</t>
+          <t>29,77; 39,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,23; 30,3</t>
+          <t>22,36; 30,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>37,71; 49,6</t>
+          <t>38,15; 49,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>37,59; 48,46</t>
+          <t>37,08; 48,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,73; 27,81</t>
+          <t>21,16; 28,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>39,11; 46,88</t>
+          <t>39,05; 46,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,27; 42,22</t>
+          <t>34,88; 42,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,44; 27,89</t>
+          <t>22,82; 28,03</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>35,11; 45,13</t>
+          <t>35,46; 45,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,04; 38,37</t>
+          <t>28,2; 37,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,39; 28,18</t>
+          <t>19,37; 28,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,66; 40,33</t>
+          <t>29,54; 40,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,41; 44,08</t>
+          <t>33,28; 43,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,57; 27,95</t>
+          <t>20,11; 27,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,29; 41,45</t>
+          <t>34,15; 41,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,88; 39,02</t>
+          <t>31,88; 39,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,67; 26,78</t>
+          <t>20,89; 26,92</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,6; 34,04</t>
+          <t>26,65; 34,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,79; 34,05</t>
+          <t>26,47; 34,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,12; 76,22</t>
+          <t>17,29; 79,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,54; 34,5</t>
+          <t>22,7; 34,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,1; 42,49</t>
+          <t>26,88; 41,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,65; 20,85</t>
+          <t>11,09; 20,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,62; 32,77</t>
+          <t>26,66; 32,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,84; 35,28</t>
+          <t>27,41; 34,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,54; 75,42</t>
+          <t>16,74; 75,95</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,34; 26,51</t>
+          <t>21,67; 26,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,5; 30,98</t>
+          <t>25,41; 31,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,68; 17,57</t>
+          <t>12,55; 17,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,64; 32,35</t>
+          <t>25,89; 32,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,82; 34,39</t>
+          <t>27,97; 34,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,16; 18,4</t>
+          <t>7,44; 18,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,96; 28,04</t>
+          <t>24,01; 28,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,34; 31,56</t>
+          <t>27,54; 31,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,98; 16,85</t>
+          <t>9,74; 16,81</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,61; 22,63</t>
+          <t>15,93; 22,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,56; 22,97</t>
+          <t>16,54; 23,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,88; 17,23</t>
+          <t>10,26; 17,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21,46; 27,95</t>
+          <t>21,24; 27,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,23; 24,38</t>
+          <t>18,35; 24,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,03; 13,35</t>
+          <t>8,1; 13,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,99; 24,62</t>
+          <t>19,85; 24,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,46; 22,96</t>
+          <t>18,15; 22,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,76; 14,16</t>
+          <t>9,82; 14,01</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>31,06; 43,08</t>
+          <t>30,91; 42,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>25,89; 37,4</t>
+          <t>25,61; 36,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,19; 29,18</t>
+          <t>9,32; 29,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,74; 26,95</t>
+          <t>21,85; 27,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,61; 33,27</t>
+          <t>27,73; 33,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,61; 15,57</t>
+          <t>10,76; 15,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,25; 29,18</t>
+          <t>24,45; 28,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>28,13; 33,4</t>
+          <t>28,09; 33,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,37; 17,56</t>
+          <t>11,32; 17,2</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>28,05; 31,38</t>
+          <t>28,25; 31,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>27,05; 30,43</t>
+          <t>26,88; 30,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,87; 42,61</t>
+          <t>17,97; 41,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>26,78; 29,78</t>
+          <t>26,8; 29,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>29,32; 32,44</t>
+          <t>29,34; 32,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,38; 17,05</t>
+          <t>12,71; 17,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,9; 30,02</t>
+          <t>27,77; 30,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>28,67; 30,95</t>
+          <t>28,6; 30,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,29; 29,82</t>
+          <t>16,4; 30,08</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, tiene calefacción individual en su vivienda</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>185223</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>150349</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>131122</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>137617</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>149958</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>108677</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>322840</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>300307</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>239799</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>164479; 207803</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>127737; 169117</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>112716; 152958</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>119961; 156949</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>128701; 168892</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>94385; 125841</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>293505; 351164</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>270756; 327148</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>216869; 266371</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>168012</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>124116</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>105734</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>117073</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>142541</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>91087</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>285085</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>266657</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>196821</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>147642; 189430</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>106361; 143197</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>87595; 128905</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>99853; 138472</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>123880; 162335</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>76945; 104903</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>257633; 313825</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>238977; 295973</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>174396; 224720</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>190726</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>157178</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>321696</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>73245</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>56861</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>25126</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>263970</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>214040</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>346822</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>167766; 214808</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>138163; 181398</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>115392; 533503</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>59054; 88815</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>44653; 69154</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18317; 33964</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>237196; 292117</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>188617; 239307</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>139367; 632261</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>277343</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>323652</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>154102</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>221825</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>256300</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>136046</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>499168</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>579952</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>290148</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>250730; 310544</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>292158; 357312</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>129489; 180708</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>198227; 250353</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>230966; 283346</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>72639; 179062</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>461711; 541081</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>543989; 625186</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>195689; 337640</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>97281</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>122714</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>63763</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>184325</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>156800</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>94375</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>281606</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>279514</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>158138</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>81032; 115154</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>102639; 146960</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>48640; 82620</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>161508; 211942</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>135498; 182219</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>67950; 113760</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>251945; 315930</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>246709; 310331</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>129011; 184055</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>96846</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>89285</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>42018</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>269808</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>329218</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>97288</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>366654</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>418502</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>139305</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>82236; 113050</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>73551; 106111</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>22411; 70277</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>241944; 299850</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>300003; 360047</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>81773; 119627</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>335786; 397536</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>384566; 454886</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>113273; 172036</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>914</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>940</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1890</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1927</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1405</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1015430</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>967294</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>818434</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1003893</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1091679</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>552599</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2019323</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>2058973</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1371033</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>964584; 1067163</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>910224; 1020006</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>605709; 1410439</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>950137; 1059144</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1036191; 1150203</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>453751; 611098</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1932729; 2103039</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1978580; 2137748</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1138177; 2087390</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P04D$individual-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P04D$individual-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
